--- a/biology/Botanique/Triticum/Triticum.xlsx
+++ b/biology/Botanique/Triticum/Triticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Triticum est un genre de plantes monocotylédones de la famille des Poaceae (graminées), de la sous-famille des Pooideae, originaire d'Eurasie, qui comprend d'une dizaine à une trentaine d'espèces selon les auteurs.
 Ce sont des plantes herbacées annuelles aux tiges (chaumes) dressées et aux inflorescences en épis linéaires.
-Ce genre comprend les diverses espèces de blé cultivées, notamment le blé tendre (Triticum aestivum) qui est l'une des céréales les plus importantes. Il contribue pour l'essentiel au génome des blés modernes, polyploïdes, qui intègre aussi des gènes provenant du genre voisin Aegilops[3].  
+Ce genre comprend les diverses espèces de blé cultivées, notamment le blé tendre (Triticum aestivum) qui est l'une des céréales les plus importantes. Il contribue pour l'essentiel au génome des blés modernes, polyploïdes, qui intègre aussi des gènes provenant du genre voisin Aegilops.  
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Triticum » attribué par Linné à ce genre est un terme latin usuel pour désigner le blé au sens large dans la Rome antique[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Triticum » attribué par Linné à ce genre est un terme latin usuel pour désigner le blé au sens large dans la Rome antique,.
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Triticum sont des plantes herbacées annuelles aux tiges (chaumes) généralement dressées, plus rarement décombantes à la base, de 30 à 160 cm de long[6]. Les feuilles ont un limbe généralement plat, une gaine fendue presque jusqu'à la base, une ligule membraneuse et des oreillettes (auricules) lancéolées[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Triticum sont des plantes herbacées annuelles aux tiges (chaumes) généralement dressées, plus rarement décombantes à la base, de 30 à 160 cm de long. Les feuilles ont un limbe généralement plat, une gaine fendue presque jusqu'à la base, une ligule membraneuse et des oreillettes (auricules) lancéolées.
 L'inflorescence est un épi linéaire, oblong ou ovale,dont le rachis se désarticule à maturité chez certaines espèces. Les épillets, sessiles, sont disposés de façon distique à raison d'un par nœud. Ils comptent 2 ou 3 à 9 (voire 11) fleurons. Le fleuron apical est généralement stérile. Le rachillet est sans articulations.
 Les épillets sont sous-tendus par deux glumes ovale, oblongues ou elliptiques, plus ou moins parcheminées, glabres ou poilues, lisses ou très scabres le long des carènes, et présentent de 3 à 11 nervures, dont une ou deux font saillie en forme de carènes.
 L'apex des glumes, tronqué obliquement, présente une ou deux dents, dont la plus grande peut parfois se prolonger en une arête  plus ou moins longue.
-Les fleurons sont sous-tendus par deux glumellules : la lemme présentant de 7 à 11 (voire 15) nervures, à l'apex aristé ou non, et la paléole, généralement plus courte que la lemme. Les fleurons ont des lodicules ciliés sur les bords. Ils comptent trois anthères et un ovaire pubescent à l'apex, avec un appendice charnu sous l'insertion du style[6].
-Le fruit est un caryopse au péricarpe adhérent, ellipsoïde, ovale ou oblong, plus ou moins renflé, profondément sillonné, à l'apex poilu[7]. L'embryon a une longueur égale à 1/5 à 1/3 de celle du caryopse, le hile, linéaire, est aussi long que le caryopse[6].
-Le nombre chromosomique de base est x = 7[7], les différentes espèces sont diploïdes (2n = 2x = 14), tétraploïdes (2n = 4x = 28) ou hexaploïdes (2n = 6x = 42).
+Les fleurons sont sous-tendus par deux glumellules : la lemme présentant de 7 à 11 (voire 15) nervures, à l'apex aristé ou non, et la paléole, généralement plus courte que la lemme. Les fleurons ont des lodicules ciliés sur les bords. Ils comptent trois anthères et un ovaire pubescent à l'apex, avec un appendice charnu sous l'insertion du style.
+Le fruit est un caryopse au péricarpe adhérent, ellipsoïde, ovale ou oblong, plus ou moins renflé, profondément sillonné, à l'apex poilu. L'embryon a une longueur égale à 1/5 à 1/3 de celle du caryopse, le hile, linéaire, est aussi long que le caryopse.
+Le nombre chromosomique de base est x = 7, les différentes espèces sont diploïdes (2n = 2x = 14), tétraploïdes (2n = 4x = 28) ou hexaploïdes (2n = 6x = 42).
 </t>
         </is>
       </c>
@@ -583,7 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2018)[8]
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2018)[8]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Triticum aestivum L. (1753)
 Triticum aestivum subsp. aestivum
 Triticum aestivum subsp. compactum (Host) Domin (1935)
@@ -607,7 +629,43 @@
 Triticum turgidum subsp. turgidum
 Triticum urartu Thumanjan ex Gandilyan (1972)
 Triticum ×zhukovskyi Menabde &amp; Erizin (1960)
-Selon The Plant List            (26 juin 2018)[9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Triticum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Triticum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces et de sous-espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (26 juin 2018)[9]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Triticum aestivum L.
 Triticum aethiopicum Jakubz.
 Triticum boeoticum Boiss.
@@ -640,33 +698,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Triticum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Triticum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces cultivées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Deux espèces du genre Triticum sont cultivées commercialement à grande échelle[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Deux espèces du genre Triticum sont cultivées commercialement à grande échelle :
 Triticum aestivum, le blé tendre, espèce hexaploïde avec les génomes A, B et D, qui représente plus de 90 % du blé cultivé dans le monde,
 Triticum durum, le blé dur, espèce tétraploïde avec les génomes A et B, cultivée principalement pour la production de pâtes et de semoule.
 En outre quelques espèces sont cultivées à petite échelle comme blés de spécialité, notamment :
